--- a/0929_covid_df_merge/data/2021-09-30_vaccinated.xlsx
+++ b/0929_covid_df_merge/data/2021-09-30_vaccinated.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\210929_covid_data\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749DB60F-4C53-460A-9375-4AA0CB16AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="8070" yWindow="660" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,9 +25,6 @@
     <t>국가</t>
   </si>
   <si>
-    <t>백신접종수</t>
-  </si>
-  <si>
     <t>Enough_percent_people:</t>
   </si>
   <si>
@@ -653,17 +656,21 @@
   </si>
   <si>
     <t>Eritrea</t>
+  </si>
+  <si>
+    <t>백신보유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,8 +678,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -718,15 +732,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +822,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +874,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,36 +1067,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>6251982336</v>
@@ -1056,15 +1116,15 @@
         <v>30250862</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2206053888</v>
       </c>
       <c r="C3">
-        <v>78.80000305175781</v>
+        <v>78.800003051757813</v>
       </c>
       <c r="D3">
         <v>82.5</v>
@@ -1076,18 +1136,18 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>883358400</v>
       </c>
       <c r="C4">
-        <v>32.29999923706055</v>
+        <v>32.299999237060547</v>
       </c>
       <c r="D4">
-        <v>46.90000152587891</v>
+        <v>46.900001525878913</v>
       </c>
       <c r="E4">
         <v>16.89999961853027</v>
@@ -1096,89 +1156,89 @@
         <v>7087679</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>564975616</v>
       </c>
       <c r="C5">
-        <v>63.59999847412109</v>
+        <v>63.599998474121087</v>
       </c>
       <c r="D5">
-        <v>67.40000152587891</v>
+        <v>67.400001525878906</v>
       </c>
       <c r="E5">
-        <v>64.80000305175781</v>
+        <v>64.800003051757813</v>
       </c>
       <c r="F5">
         <v>1017118</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>391992672</v>
       </c>
       <c r="C6">
-        <v>61.20000076293945</v>
+        <v>61.200000762939453</v>
       </c>
       <c r="D6">
         <v>64.5</v>
       </c>
       <c r="E6">
-        <v>55.90000152587891</v>
+        <v>55.900001525878913</v>
       </c>
       <c r="F6">
         <v>706771</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>234674912</v>
       </c>
       <c r="C7">
-        <v>56.79999923706055</v>
+        <v>56.799999237060547</v>
       </c>
       <c r="D7">
         <v>71.5</v>
       </c>
       <c r="E7">
-        <v>42.29999923706055</v>
+        <v>42.299999237060547</v>
       </c>
       <c r="F7">
         <v>1396215</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>162577376</v>
       </c>
       <c r="C8">
-        <v>64.40000152587891</v>
+        <v>64.400001525878906</v>
       </c>
       <c r="D8">
-        <v>69.90000152587891</v>
+        <v>69.900001525878906</v>
       </c>
       <c r="E8">
-        <v>58.90000152587891</v>
+        <v>58.900001525878913</v>
       </c>
       <c r="F8">
         <v>1086500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>141049216</v>
@@ -1187,7 +1247,7 @@
         <v>26.39999961853027</v>
       </c>
       <c r="D9">
-        <v>33.40000152587891</v>
+        <v>33.400001525878913</v>
       </c>
       <c r="E9">
         <v>18.70000076293945</v>
@@ -1196,109 +1256,109 @@
         <v>1850779</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>109164376</v>
       </c>
       <c r="C10">
-        <v>65.59999847412109</v>
+        <v>65.599998474121094</v>
       </c>
       <c r="D10">
-        <v>64.69999694824219</v>
+        <v>64.699996948242188</v>
       </c>
       <c r="E10">
-        <v>53.29999923706055</v>
+        <v>53.299999237060547</v>
       </c>
       <c r="F10">
         <v>378499</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>107422984</v>
       </c>
       <c r="C11">
-        <v>64.59999847412109</v>
+        <v>64.599998474121094</v>
       </c>
       <c r="D11">
         <v>68</v>
       </c>
       <c r="E11">
-        <v>64.30000305175781</v>
+        <v>64.300003051757813</v>
       </c>
       <c r="F11">
         <v>193171</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>99868672</v>
       </c>
       <c r="C12">
-        <v>39.09999847412109</v>
+        <v>39.099998474121087</v>
       </c>
       <c r="D12">
-        <v>49.79999923706055</v>
+        <v>49.799999237060547</v>
       </c>
       <c r="E12">
-        <v>35.20000076293945</v>
+        <v>35.200000762939453</v>
       </c>
       <c r="F12">
         <v>439355</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>94409616</v>
       </c>
       <c r="C13">
-        <v>72.80000305175781</v>
+        <v>72.800003051757813</v>
       </c>
       <c r="D13">
         <v>77.5</v>
       </c>
       <c r="E13">
-        <v>74.69999694824219</v>
+        <v>74.699996948242188</v>
       </c>
       <c r="F13">
         <v>238666</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>93630856</v>
       </c>
       <c r="C14">
-        <v>70.09999847412109</v>
+        <v>70.099998474121094</v>
       </c>
       <c r="D14">
-        <v>73.09999847412109</v>
+        <v>73.099998474121094</v>
       </c>
       <c r="E14">
-        <v>67.09999847412109</v>
+        <v>67.099998474121094</v>
       </c>
       <c r="F14">
         <v>63598</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>90127904</v>
@@ -1307,7 +1367,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="D15">
-        <v>32.59999847412109</v>
+        <v>32.599998474121087</v>
       </c>
       <c r="E15">
         <v>28.5</v>
@@ -1316,9 +1376,9 @@
         <v>222855</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>84548512</v>
@@ -1327,18 +1387,18 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <v>74.59999847412109</v>
+        <v>74.599998474121094</v>
       </c>
       <c r="E16">
-        <v>74.69999694824219</v>
+        <v>74.699996948242188</v>
       </c>
       <c r="F16">
         <v>201909</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>80508568</v>
@@ -1356,69 +1416,69 @@
         <v>717039</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>70022096</v>
       </c>
       <c r="C18">
-        <v>75.30000305175781</v>
+        <v>75.300003051757813</v>
       </c>
       <c r="D18">
         <v>81</v>
       </c>
       <c r="E18">
-        <v>78.69999694824219</v>
+        <v>78.699996948242188</v>
       </c>
       <c r="F18">
         <v>67575</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>63412392</v>
       </c>
       <c r="C19">
-        <v>61.29999923706055</v>
+        <v>61.299999237060547</v>
       </c>
       <c r="D19">
         <v>75</v>
       </c>
       <c r="E19">
-        <v>47.70000076293945</v>
+        <v>47.700000762939453</v>
       </c>
       <c r="F19">
         <v>662506</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>56108840</v>
       </c>
       <c r="C20">
-        <v>74.80000305175781</v>
+        <v>74.800003051757813</v>
       </c>
       <c r="D20">
-        <v>76.19999694824219</v>
+        <v>76.199996948242188</v>
       </c>
       <c r="E20">
-        <v>70.59999847412109</v>
+        <v>70.599998474121094</v>
       </c>
       <c r="F20">
         <v>99712</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>51950784</v>
@@ -1427,7 +1487,7 @@
         <v>31.20000076293945</v>
       </c>
       <c r="D21">
-        <v>43.59999847412109</v>
+        <v>43.599998474121087</v>
       </c>
       <c r="E21">
         <v>18.79999923706055</v>
@@ -1436,38 +1496,38 @@
         <v>953168</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>51516132</v>
       </c>
       <c r="C22">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D22">
-        <v>65.80000305175781</v>
+        <v>65.800003051757813</v>
       </c>
       <c r="E22">
-        <v>48.79999923706055</v>
+        <v>48.799999237060547</v>
       </c>
       <c r="F22">
         <v>215137</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>49681432</v>
       </c>
       <c r="C23">
-        <v>35.70000076293945</v>
+        <v>35.700000762939453</v>
       </c>
       <c r="D23">
-        <v>45.40000152587891</v>
+        <v>45.400001525878913</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -1476,9 +1536,9 @@
         <v>614129</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>48225448</v>
@@ -1496,9 +1556,9 @@
         <v>1387002</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>44741740</v>
@@ -1516,89 +1576,89 @@
         <v>372853</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>43367580</v>
       </c>
       <c r="C26">
-        <v>66.59999847412109</v>
+        <v>66.599998474121094</v>
       </c>
       <c r="D26">
-        <v>71.09999847412109</v>
+        <v>71.099998474121094</v>
       </c>
       <c r="E26">
-        <v>61.20000076293945</v>
+        <v>61.200000762939453</v>
       </c>
       <c r="F26">
         <v>302901</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>41987172</v>
       </c>
       <c r="C27">
-        <v>61.59999847412109</v>
+        <v>61.599998474121087</v>
       </c>
       <c r="D27">
         <v>68.5</v>
       </c>
       <c r="E27">
-        <v>54.70000076293945</v>
+        <v>54.700000762939453</v>
       </c>
       <c r="F27">
         <v>99437</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>41099860</v>
       </c>
       <c r="C28">
-        <v>57.70000076293945</v>
+        <v>57.700000762939453</v>
       </c>
       <c r="D28">
-        <v>62.70000076293945</v>
+        <v>62.700000762939453</v>
       </c>
       <c r="E28">
-        <v>52.79999923706055</v>
+        <v>52.799999237060547</v>
       </c>
       <c r="F28">
         <v>276939</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>39913296</v>
       </c>
       <c r="C29">
-        <v>39.59999847412109</v>
+        <v>39.599998474121087</v>
       </c>
       <c r="D29">
         <v>51.5</v>
       </c>
       <c r="E29">
-        <v>32.90000152587891</v>
+        <v>32.900001525878913</v>
       </c>
       <c r="F29">
         <v>175737</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>39232772</v>
@@ -1607,18 +1667,18 @@
         <v>20.29999923706055</v>
       </c>
       <c r="D30">
-        <v>32.09999847412109</v>
+        <v>32.099998474121087</v>
       </c>
       <c r="E30">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="F30">
         <v>631780</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>37186152</v>
@@ -1627,58 +1687,58 @@
         <v>49</v>
       </c>
       <c r="D31">
-        <v>52.09999847412109</v>
+        <v>52.099998474121087</v>
       </c>
       <c r="E31">
-        <v>51.09999847412109</v>
+        <v>51.099998474121087</v>
       </c>
       <c r="F31">
         <v>25586</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>31664524</v>
       </c>
       <c r="C32">
-        <v>82.90000152587891</v>
+        <v>82.900001525878906</v>
       </c>
       <c r="D32">
-        <v>78.80000305175781</v>
+        <v>78.800003051757813</v>
       </c>
       <c r="E32">
-        <v>73.80000305175781</v>
+        <v>73.800003051757813</v>
       </c>
       <c r="F32">
         <v>90807</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>27441696</v>
       </c>
       <c r="C33">
-        <v>53.79999923706055</v>
+        <v>53.799999237060547</v>
       </c>
       <c r="D33">
-        <v>63.70000076293945</v>
+        <v>63.700000762939453</v>
       </c>
       <c r="E33">
-        <v>42.59999847412109</v>
+        <v>42.599998474121087</v>
       </c>
       <c r="F33">
         <v>285209</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>26171816</v>
@@ -1687,7 +1747,7 @@
         <v>60</v>
       </c>
       <c r="D34">
-        <v>66.40000152587891</v>
+        <v>66.400001525878906</v>
       </c>
       <c r="E34">
         <v>53.5</v>
@@ -1696,18 +1756,18 @@
         <v>151563</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>26058662</v>
       </c>
       <c r="C35">
-        <v>39.29999923706055</v>
+        <v>39.299999237060547</v>
       </c>
       <c r="D35">
-        <v>47.09999847412109</v>
+        <v>47.099998474121087</v>
       </c>
       <c r="E35">
         <v>31.5</v>
@@ -1716,9 +1776,9 @@
         <v>230804</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>24072204</v>
@@ -1727,98 +1787,98 @@
         <v>73</v>
       </c>
       <c r="D36">
-        <v>80.09999847412109</v>
+        <v>80.099998474121094</v>
       </c>
       <c r="E36">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="F36">
         <v>179078</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>23540560</v>
       </c>
       <c r="C37">
-        <v>68.30000305175781</v>
+        <v>68.300003051757813</v>
       </c>
       <c r="D37">
-        <v>70.30000305175781</v>
+        <v>70.300003051757813</v>
       </c>
       <c r="E37">
-        <v>63.59999847412109</v>
+        <v>63.599998474121087</v>
       </c>
       <c r="F37">
         <v>20075</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>20666054</v>
       </c>
       <c r="C38">
-        <v>59.79999923706055</v>
+        <v>59.799999237060547</v>
       </c>
       <c r="D38">
         <v>64.5</v>
       </c>
       <c r="E38">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="F38">
         <v>20552</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>20535956</v>
       </c>
       <c r="C39">
-        <v>90.59999847412109</v>
+        <v>90.599998474121094</v>
       </c>
       <c r="D39">
-        <v>80.80000305175781</v>
+        <v>80.800003051757813</v>
       </c>
       <c r="E39">
-        <v>43.70000076293945</v>
+        <v>43.700000762939453</v>
       </c>
       <c r="F39">
         <v>254770</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>20018034</v>
       </c>
       <c r="C40">
-        <v>93.09999847412109</v>
+        <v>93.099998474121094</v>
       </c>
       <c r="D40">
-        <v>86.19999694824219</v>
+        <v>86.199996948242188</v>
       </c>
       <c r="E40">
-        <v>76.40000152587891</v>
+        <v>76.400001525878906</v>
       </c>
       <c r="F40">
         <v>52096</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>19969344</v>
@@ -1836,9 +1896,9 @@
         <v>250614</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>18057256</v>
@@ -1856,9 +1916,9 @@
         <v>161358</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>17176604</v>
@@ -1876,58 +1936,58 @@
         <v>113252</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>16672036</v>
       </c>
       <c r="C44">
-        <v>72.80000305175781</v>
+        <v>72.800003051757813</v>
       </c>
       <c r="D44">
-        <v>74.80000305175781</v>
+        <v>74.800003051757813</v>
       </c>
       <c r="E44">
-        <v>73.30000305175781</v>
+        <v>73.300003051757813</v>
       </c>
       <c r="F44">
         <v>21397</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>16223309</v>
       </c>
       <c r="C45">
-        <v>8.199999809265137</v>
+        <v>8.1999998092651367</v>
       </c>
       <c r="D45">
         <v>10.60000038146973</v>
       </c>
       <c r="E45">
-        <v>5.699999809265137</v>
+        <v>5.6999998092651367</v>
       </c>
       <c r="F45">
         <v>385142</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>15950862</v>
       </c>
       <c r="C46">
-        <v>77.59999847412109</v>
+        <v>77.599998474121094</v>
       </c>
       <c r="D46">
-        <v>86.90000152587891</v>
+        <v>86.900001525878906</v>
       </c>
       <c r="E46">
         <v>84</v>
@@ -1936,9 +1996,9 @@
         <v>16224</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>15714857</v>
@@ -1956,9 +2016,9 @@
         <v>343401</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>15091281</v>
@@ -1967,18 +2027,18 @@
         <v>32</v>
       </c>
       <c r="D48">
-        <v>54.29999923706055</v>
+        <v>54.299999237060547</v>
       </c>
       <c r="E48">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="F48">
         <v>240846</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>15030613</v>
@@ -1987,38 +2047,38 @@
         <v>83</v>
       </c>
       <c r="D49">
-        <v>67.40000152587891</v>
+        <v>67.400001525878906</v>
       </c>
       <c r="E49">
-        <v>62.20000076293945</v>
+        <v>62.200000762939453</v>
       </c>
       <c r="F49">
         <v>32724</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>14095115</v>
       </c>
       <c r="C50">
-        <v>37.79999923706055</v>
+        <v>37.799999237060547</v>
       </c>
       <c r="D50">
-        <v>40.59999847412109</v>
+        <v>40.599998474121087</v>
       </c>
       <c r="E50">
-        <v>34.59999847412109</v>
+        <v>34.599998474121087</v>
       </c>
       <c r="F50">
         <v>56703</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>14082920</v>
@@ -2030,15 +2090,15 @@
         <v>13.89999961853027</v>
       </c>
       <c r="E51">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="F51">
         <v>292376</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>13730445</v>
@@ -2047,7 +2107,7 @@
         <v>66.5</v>
       </c>
       <c r="D52">
-        <v>69.19999694824219</v>
+        <v>69.199996948242188</v>
       </c>
       <c r="E52">
         <v>63.5</v>
@@ -2056,9 +2116,9 @@
         <v>28302</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>13452743</v>
@@ -2076,9 +2136,9 @@
         <v>205302</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>12112128</v>
@@ -2096,18 +2156,18 @@
         <v>21649</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>11859802</v>
       </c>
       <c r="C55">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="D55">
-        <v>58.29999923706055</v>
+        <v>58.299999237060547</v>
       </c>
       <c r="E55">
         <v>55.5</v>
@@ -2116,49 +2176,49 @@
         <v>21593</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>11790273</v>
       </c>
       <c r="C56">
-        <v>55.40000152587891</v>
+        <v>55.400001525878913</v>
       </c>
       <c r="D56">
         <v>57</v>
       </c>
       <c r="E56">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="F56">
         <v>7440</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>11167215</v>
       </c>
       <c r="C57">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="D57">
-        <v>60.20000076293945</v>
+        <v>60.200000762939453</v>
       </c>
       <c r="E57">
-        <v>57.70000076293945</v>
+        <v>57.700000762939453</v>
       </c>
       <c r="F57">
         <v>5617</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>10935671</v>
@@ -2170,24 +2230,24 @@
         <v>13.60000038146973</v>
       </c>
       <c r="E58">
-        <v>6.599999904632568</v>
+        <v>6.5999999046325684</v>
       </c>
       <c r="F58">
         <v>241757</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>10817179</v>
       </c>
       <c r="C59">
-        <v>61.09999847412109</v>
+        <v>61.099998474121087</v>
       </c>
       <c r="D59">
-        <v>64.59999847412109</v>
+        <v>64.599998474121094</v>
       </c>
       <c r="E59">
         <v>61</v>
@@ -2196,18 +2256,18 @@
         <v>9594</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>10383501</v>
       </c>
       <c r="C60">
-        <v>60.79999923706055</v>
+        <v>60.799999237060547</v>
       </c>
       <c r="D60">
-        <v>64.40000152587891</v>
+        <v>64.400001525878906</v>
       </c>
       <c r="E60">
         <v>58.5</v>
@@ -2216,9 +2276,9 @@
         <v>27584</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>10175695</v>
@@ -2236,29 +2296,29 @@
         <v>26825</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>9306870</v>
       </c>
       <c r="C62">
-        <v>81.59999847412109</v>
+        <v>81.599998474121094</v>
       </c>
       <c r="D62">
-        <v>82.09999847412109</v>
+        <v>82.099998474121094</v>
       </c>
       <c r="E62">
-        <v>79.19999694824219</v>
+        <v>79.199996948242188</v>
       </c>
       <c r="F62">
         <v>21411</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>8819556</v>
@@ -2267,18 +2327,18 @@
         <v>76</v>
       </c>
       <c r="D63">
-        <v>76.69999694824219</v>
+        <v>76.699996948242188</v>
       </c>
       <c r="E63">
-        <v>75.19999694824219</v>
+        <v>75.199996948242188</v>
       </c>
       <c r="F63">
         <v>4111</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>8646366</v>
@@ -2287,47 +2347,47 @@
         <v>57.5</v>
       </c>
       <c r="D64">
-        <v>59.59999847412109</v>
+        <v>59.599998474121087</v>
       </c>
       <c r="E64">
-        <v>55.40000152587891</v>
+        <v>55.400001525878913</v>
       </c>
       <c r="F64">
         <v>29448</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>8350575</v>
       </c>
       <c r="C65">
-        <v>41.79999923706055</v>
+        <v>41.799999237060547</v>
       </c>
       <c r="D65">
-        <v>47.20000076293945</v>
+        <v>47.200000762939453</v>
       </c>
       <c r="E65">
-        <v>36.40000152587891</v>
+        <v>36.400001525878913</v>
       </c>
       <c r="F65">
         <v>43969</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>7975573</v>
       </c>
       <c r="C66">
-        <v>33.79999923706055</v>
+        <v>33.799999237060547</v>
       </c>
       <c r="D66">
-        <v>42.59999847412109</v>
+        <v>42.599998474121087</v>
       </c>
       <c r="E66">
         <v>32</v>
@@ -2336,9 +2396,9 @@
         <v>104696</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>7769255</v>
@@ -2347,24 +2407,24 @@
         <v>72.5</v>
       </c>
       <c r="D67">
-        <v>77.30000305175781</v>
+        <v>77.300003051757813</v>
       </c>
       <c r="E67">
-        <v>67.69999694824219</v>
+        <v>67.699996948242188</v>
       </c>
       <c r="F67">
         <v>15809</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>7608508</v>
       </c>
       <c r="C68">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="D68">
         <v>12</v>
@@ -2376,9 +2436,9 @@
         <v>38726</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>7556125</v>
@@ -2387,78 +2447,78 @@
         <v>68.5</v>
       </c>
       <c r="D69">
-        <v>74.80000305175781</v>
+        <v>74.800003051757813</v>
       </c>
       <c r="E69">
-        <v>62.09999847412109</v>
+        <v>62.099998474121087</v>
       </c>
       <c r="F69">
         <v>20810</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>7396969</v>
       </c>
       <c r="C70">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D70">
-        <v>62.79999923706055</v>
+        <v>62.799999237060547</v>
       </c>
       <c r="E70">
-        <v>51.59999847412109</v>
+        <v>51.599998474121087</v>
       </c>
       <c r="F70">
         <v>37098</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>7207797</v>
       </c>
       <c r="C71">
-        <v>72.80000305175781</v>
+        <v>72.800003051757813</v>
       </c>
       <c r="D71">
-        <v>76.09999847412109</v>
+        <v>76.099998474121094</v>
       </c>
       <c r="E71">
-        <v>74.19999694824219</v>
+        <v>74.199996948242188</v>
       </c>
       <c r="F71">
         <v>8782</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>6976290</v>
       </c>
       <c r="C72">
-        <v>34.59999847412109</v>
+        <v>34.599998474121087</v>
       </c>
       <c r="D72">
-        <v>36.70000076293945</v>
+        <v>36.700000762939453</v>
       </c>
       <c r="E72">
-        <v>32.40000152587891</v>
+        <v>32.400001525878913</v>
       </c>
       <c r="F72">
         <v>15752</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>6757605</v>
@@ -2476,9 +2536,9 @@
         <v>70914</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>6729706</v>
@@ -2487,7 +2547,7 @@
         <v>29.10000038146973</v>
       </c>
       <c r="D74">
-        <v>36.79999923706055</v>
+        <v>36.799999237060547</v>
       </c>
       <c r="E74">
         <v>28.20000076293945</v>
@@ -2496,49 +2556,49 @@
         <v>33840</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>6552979</v>
       </c>
       <c r="C75">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="D75">
-        <v>2.299999952316284</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="E75">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="F75">
         <v>67104</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>6456710</v>
       </c>
       <c r="C76">
-        <v>46.40000152587891</v>
+        <v>46.400001525878913</v>
       </c>
       <c r="D76">
         <v>43.5</v>
       </c>
       <c r="E76">
-        <v>41.59999847412109</v>
+        <v>41.599998474121087</v>
       </c>
       <c r="F76">
         <v>17745</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>6374064</v>
@@ -2547,27 +2607,27 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>90.09999847412109</v>
+        <v>90.099998474121094</v>
       </c>
       <c r="E77">
-        <v>61.90000152587891</v>
+        <v>61.900001525878913</v>
       </c>
       <c r="F77">
         <v>237136</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>6234761</v>
       </c>
       <c r="C78">
-        <v>88.59999847412109</v>
+        <v>88.599998474121094</v>
       </c>
       <c r="D78">
-        <v>77.69999694824219</v>
+        <v>77.699996948242188</v>
       </c>
       <c r="E78">
         <v>73</v>
@@ -2576,18 +2636,18 @@
         <v>19405</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>5367816</v>
       </c>
       <c r="C79">
-        <v>63.59999847412109</v>
+        <v>63.599998474121087</v>
       </c>
       <c r="D79">
-        <v>69.69999694824219</v>
+        <v>69.699996948242188</v>
       </c>
       <c r="E79">
         <v>57.5</v>
@@ -2596,9 +2656,9 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>5290317</v>
@@ -2616,9 +2676,9 @@
         <v>29469</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>5278479</v>
@@ -2636,9 +2696,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>5196072</v>
@@ -2647,7 +2707,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="D82">
-        <v>32.79999923706055</v>
+        <v>32.799999237060547</v>
       </c>
       <c r="E82">
         <v>20.39999961853027</v>
@@ -2656,89 +2716,89 @@
         <v>46577</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>5132627</v>
       </c>
       <c r="C83">
-        <v>52.09999847412109</v>
+        <v>52.099998474121087</v>
       </c>
       <c r="D83">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="E83">
-        <v>37.90000152587891</v>
+        <v>37.900001525878913</v>
       </c>
       <c r="F83">
         <v>37830</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>4767787</v>
       </c>
       <c r="C84">
-        <v>43.70000076293945</v>
+        <v>43.700000762939453</v>
       </c>
       <c r="D84">
-        <v>44.90000152587891</v>
+        <v>44.900001525878913</v>
       </c>
       <c r="E84">
-        <v>41.29999923706055</v>
+        <v>41.299999237060547</v>
       </c>
       <c r="F84">
         <v>5575</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>4708867</v>
       </c>
       <c r="C85">
-        <v>84.19999694824219</v>
+        <v>84.199996948242188</v>
       </c>
       <c r="D85">
-        <v>84.40000152587891</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="E85">
-        <v>79.40000152587891</v>
+        <v>79.400001525878906</v>
       </c>
       <c r="F85">
         <v>4704</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>4662652</v>
       </c>
       <c r="C86">
-        <v>70.69999694824219</v>
+        <v>70.699996948242188</v>
       </c>
       <c r="D86">
-        <v>68.30000305175781</v>
+        <v>68.300003051757813</v>
       </c>
       <c r="E86">
-        <v>64.59999847412109</v>
+        <v>64.599998474121094</v>
       </c>
       <c r="F86">
         <v>13034</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>4488153</v>
@@ -2747,7 +2807,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="D87">
-        <v>36.70000076293945</v>
+        <v>36.700000762939453</v>
       </c>
       <c r="E87">
         <v>26.10000038146973</v>
@@ -2756,9 +2816,9 @@
         <v>10058</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>4402770</v>
@@ -2767,7 +2827,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="D88">
-        <v>41.09999847412109</v>
+        <v>41.099998474121087</v>
       </c>
       <c r="E88">
         <v>26.70000076293945</v>
@@ -2776,9 +2836,9 @@
         <v>9906</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>3872421</v>
@@ -2796,9 +2856,9 @@
         <v>70941</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>3760170</v>
@@ -2816,49 +2876,49 @@
         <v>55030</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>3712030</v>
       </c>
       <c r="C91">
-        <v>3.900000095367432</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="D91">
-        <v>5.800000190734863</v>
+        <v>5.8000001907348633</v>
       </c>
       <c r="E91">
-        <v>1.899999976158142</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="F91">
         <v>35853</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>3644423</v>
       </c>
       <c r="C92">
-        <v>5.800000190734863</v>
+        <v>5.8000001907348633</v>
       </c>
       <c r="D92">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="E92">
-        <v>5.599999904632568</v>
+        <v>5.5999999046325684</v>
       </c>
       <c r="F92">
         <v>54234</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>3559648</v>
@@ -2867,18 +2927,18 @@
         <v>1.799999952316284</v>
       </c>
       <c r="D93">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="E93">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="F93">
         <v>47783</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>3419381</v>
@@ -2887,18 +2947,18 @@
         <v>42</v>
       </c>
       <c r="D94">
-        <v>44.59999847412109</v>
+        <v>44.599998474121087</v>
       </c>
       <c r="E94">
-        <v>41.79999923706055</v>
+        <v>41.799999237060547</v>
       </c>
       <c r="F94">
         <v>5545</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>3389520</v>
@@ -2916,58 +2976,58 @@
         <v>26145</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>3207088</v>
       </c>
       <c r="C96">
-        <v>57.59999847412109</v>
+        <v>57.599998474121087</v>
       </c>
       <c r="D96">
-        <v>62.59999847412109</v>
+        <v>62.599998474121087</v>
       </c>
       <c r="E96">
-        <v>57.79999923706055</v>
+        <v>57.799999237060547</v>
       </c>
       <c r="F96">
         <v>492</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>3134137</v>
       </c>
       <c r="C97">
-        <v>5.199999809265137</v>
+        <v>5.1999998092651367</v>
       </c>
       <c r="D97">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="E97">
-        <v>3.299999952316284</v>
+        <v>3.2999999523162842</v>
       </c>
       <c r="F97">
         <v>44858</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>3133227</v>
       </c>
       <c r="C98">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="D98">
-        <v>2.099999904632568</v>
+        <v>2.0999999046325679</v>
       </c>
       <c r="E98">
         <v>1.200000047683716</v>
@@ -2976,9 +3036,9 @@
         <v>765279</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>3038896</v>
@@ -2996,29 +3056,29 @@
         <v>12103</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>2574524</v>
       </c>
       <c r="C100">
-        <v>86.69999694824219</v>
+        <v>86.699996948242188</v>
       </c>
       <c r="D100">
         <v>78.5</v>
       </c>
       <c r="E100">
-        <v>75.09999847412109</v>
+        <v>75.099998474121094</v>
       </c>
       <c r="F100">
         <v>4846</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>2530744</v>
@@ -3036,9 +3096,9 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>2380000</v>
@@ -3047,7 +3107,7 @@
         <v>25.10000038146973</v>
       </c>
       <c r="D102">
-        <v>56.20000076293945</v>
+        <v>56.200000762939453</v>
       </c>
       <c r="E102">
         <v>19.39999961853027</v>
@@ -3056,38 +3116,38 @@
         <v>12990</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>2119238</v>
       </c>
       <c r="C103">
-        <v>52.29999923706055</v>
+        <v>52.299999237060547</v>
       </c>
       <c r="D103">
-        <v>54.29999923706055</v>
+        <v>54.299999237060547</v>
       </c>
       <c r="E103">
-        <v>48.20000076293945</v>
+        <v>48.200000762939453</v>
       </c>
       <c r="F103">
         <v>6177</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>2058553</v>
       </c>
       <c r="C104">
-        <v>2.599999904632568</v>
+        <v>2.5999999046325679</v>
       </c>
       <c r="D104">
-        <v>4.099999904632568</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3096,29 +3156,29 @@
         <v>90201</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>1982168</v>
       </c>
       <c r="C105">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="D105">
-        <v>5.599999904632568</v>
+        <v>5.5999999046325684</v>
       </c>
       <c r="E105">
-        <v>1.399999976158142</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="F105">
         <v>29591</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>1784832</v>
@@ -3127,7 +3187,7 @@
         <v>5.5</v>
       </c>
       <c r="D106">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="E106">
         <v>3.5</v>
@@ -3136,9 +3196,9 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>1774769</v>
@@ -3156,18 +3216,18 @@
         <v>12623</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>1732598</v>
       </c>
       <c r="C108">
-        <v>6.400000095367432</v>
+        <v>6.4000000953674316</v>
       </c>
       <c r="D108">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -3176,9 +3236,9 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>1723996</v>
@@ -3187,7 +3247,7 @@
         <v>30</v>
       </c>
       <c r="D109">
-        <v>32.79999923706055</v>
+        <v>32.799999237060547</v>
       </c>
       <c r="E109">
         <v>27.29999923706055</v>
@@ -3196,9 +3256,9 @@
         <v>8344</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>1704840</v>
@@ -3216,18 +3276,18 @@
         <v>23108</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>1653422</v>
       </c>
       <c r="C111">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D111">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="E111">
         <v>2.5</v>
@@ -3236,9 +3296,9 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>1633952</v>
@@ -3247,38 +3307,38 @@
         <v>64.5</v>
       </c>
       <c r="D112">
-        <v>66.80000305175781</v>
+        <v>66.800003051757813</v>
       </c>
       <c r="E112">
-        <v>62.20000076293945</v>
+        <v>62.200000762939453</v>
       </c>
       <c r="F112">
         <v>1155</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>1626651</v>
       </c>
       <c r="C113">
-        <v>42.40000152587891</v>
+        <v>42.400001525878913</v>
       </c>
       <c r="D113">
         <v>47.5</v>
       </c>
       <c r="E113">
-        <v>43.79999923706055</v>
+        <v>43.799999237060547</v>
       </c>
       <c r="F113">
         <v>4632</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>1586055</v>
@@ -3290,35 +3350,35 @@
         <v>21</v>
       </c>
       <c r="E114">
-        <v>2.799999952316284</v>
+        <v>2.7999999523162842</v>
       </c>
       <c r="F114">
         <v>13839</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>1505469</v>
       </c>
       <c r="C115">
-        <v>36.20000076293945</v>
+        <v>36.200000762939453</v>
       </c>
       <c r="D115">
-        <v>37.70000076293945</v>
+        <v>37.700000762939453</v>
       </c>
       <c r="E115">
-        <v>34.70000076293945</v>
+        <v>34.700000762939453</v>
       </c>
       <c r="F115">
         <v>5749</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>1436823</v>
@@ -3330,15 +3390,15 @@
         <v>12.80000019073486</v>
       </c>
       <c r="E116">
-        <v>9.600000381469727</v>
+        <v>9.6000003814697266</v>
       </c>
       <c r="F116">
         <v>10729</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>1392707</v>
@@ -3356,9 +3416,9 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118">
         <v>1364994</v>
@@ -3367,27 +3427,27 @@
         <v>51.5</v>
       </c>
       <c r="D118">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="E118">
-        <v>45.90000152587891</v>
+        <v>45.900001525878913</v>
       </c>
       <c r="F118">
         <v>3284</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>1299482</v>
       </c>
       <c r="C119">
-        <v>36.09999847412109</v>
+        <v>36.099998474121087</v>
       </c>
       <c r="D119">
-        <v>43.70000076293945</v>
+        <v>43.700000762939453</v>
       </c>
       <c r="E119">
         <v>28.5</v>
@@ -3396,9 +3456,9 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>1155490</v>
@@ -3407,18 +3467,18 @@
         <v>66</v>
       </c>
       <c r="D120">
-        <v>67.90000152587891</v>
+        <v>67.900001525878906</v>
       </c>
       <c r="E120">
-        <v>63.09999847412109</v>
+        <v>63.099998474121087</v>
       </c>
       <c r="F120">
         <v>1955</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>1118158</v>
@@ -3427,7 +3487,7 @@
         <v>13.80000019073486</v>
       </c>
       <c r="D121">
-        <v>7.900000095367432</v>
+        <v>7.9000000953674316</v>
       </c>
       <c r="E121">
         <v>14</v>
@@ -3436,49 +3496,49 @@
         <v>34720</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>1087426</v>
       </c>
       <c r="C122">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D122">
-        <v>3.900000095367432</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="E122">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="F122">
         <v>7241</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123">
         <v>1081086</v>
       </c>
       <c r="C123">
-        <v>72.59999847412109</v>
+        <v>72.599998474121094</v>
       </c>
       <c r="D123">
         <v>78.5</v>
       </c>
       <c r="E123">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="F123">
         <v>2265</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>1060145</v>
@@ -3496,58 +3556,58 @@
         <v>7334</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>1057104</v>
       </c>
       <c r="C125">
-        <v>37.90000152587891</v>
+        <v>37.900001525878913</v>
       </c>
       <c r="D125">
         <v>41.5</v>
       </c>
       <c r="E125">
-        <v>34.90000152587891</v>
+        <v>34.900001525878913</v>
       </c>
       <c r="F125">
         <v>4084</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126">
         <v>1033997</v>
       </c>
       <c r="C126">
-        <v>57.79999923706055</v>
+        <v>57.799999237060547</v>
       </c>
       <c r="D126">
         <v>68</v>
       </c>
       <c r="E126">
-        <v>47.59999847412109</v>
+        <v>47.599998474121087</v>
       </c>
       <c r="F126">
         <v>8390</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127">
         <v>997632</v>
       </c>
       <c r="C127">
-        <v>6.199999809265137</v>
+        <v>6.1999998092651367</v>
       </c>
       <c r="D127">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -3556,9 +3616,9 @@
         <v>23544</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128">
         <v>820435</v>
@@ -3567,18 +3627,18 @@
         <v>83</v>
       </c>
       <c r="D128">
-        <v>85.19999694824219</v>
+        <v>85.199996948242188</v>
       </c>
       <c r="E128">
-        <v>85.19999694824219</v>
+        <v>85.199996948242188</v>
       </c>
       <c r="F128">
         <v>1046</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>788502</v>
@@ -3587,38 +3647,38 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>7.699999809265137</v>
+        <v>7.6999998092651367</v>
       </c>
       <c r="E129">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="F129">
         <v>2155</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>785299</v>
       </c>
       <c r="C130">
-        <v>63.90000152587891</v>
+        <v>63.900001525878913</v>
       </c>
       <c r="D130">
-        <v>68.09999847412109</v>
+        <v>68.099998474121094</v>
       </c>
       <c r="E130">
-        <v>65.09999847412109</v>
+        <v>65.099998474121094</v>
       </c>
       <c r="F130">
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>755782</v>
@@ -3630,15 +3690,15 @@
         <v>19.39999961853027</v>
       </c>
       <c r="E131">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="F131">
         <v>6298</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>729253</v>
@@ -3647,18 +3707,18 @@
         <v>98</v>
       </c>
       <c r="D132">
-        <v>105.4000015258789</v>
+        <v>105.40000152587891</v>
       </c>
       <c r="E132">
-        <v>90.69999694824219</v>
+        <v>90.699996948242188</v>
       </c>
       <c r="F132">
         <v>796</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>720260</v>
@@ -3670,15 +3730,15 @@
         <v>1.799999952316284</v>
       </c>
       <c r="E133">
-        <v>2.099999904632568</v>
+        <v>2.0999999046325679</v>
       </c>
       <c r="F133">
         <v>7129</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>711879</v>
@@ -3687,7 +3747,7 @@
         <v>27.5</v>
       </c>
       <c r="D134">
-        <v>34.09999847412109</v>
+        <v>34.099998474121087</v>
       </c>
       <c r="E134">
         <v>19.39999961853027</v>
@@ -3696,29 +3756,29 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>649564</v>
       </c>
       <c r="C135">
-        <v>47.79999923706055</v>
+        <v>47.799999237060547</v>
       </c>
       <c r="D135">
-        <v>51.20000076293945</v>
+        <v>51.200000762939453</v>
       </c>
       <c r="E135">
-        <v>44.59999847412109</v>
+        <v>44.599998474121087</v>
       </c>
       <c r="F135">
         <v>4123</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>621853</v>
@@ -3730,15 +3790,15 @@
         <v>1.700000047683716</v>
       </c>
       <c r="E136">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="F136">
         <v>9294</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137">
         <v>606699</v>
@@ -3756,38 +3816,38 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>551110</v>
       </c>
       <c r="C138">
-        <v>77.19999694824219</v>
+        <v>77.199996948242188</v>
       </c>
       <c r="D138">
-        <v>78.80000305175781</v>
+        <v>78.800003051757813</v>
       </c>
       <c r="E138">
-        <v>77.19999694824219</v>
+        <v>77.199996948242188</v>
       </c>
       <c r="F138">
         <v>1103</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>538748</v>
       </c>
       <c r="C139">
-        <v>34.29999923706055</v>
+        <v>34.299999237060547</v>
       </c>
       <c r="D139">
-        <v>45.20000076293945</v>
+        <v>45.200000762939453</v>
       </c>
       <c r="E139">
         <v>23.39999961853027</v>
@@ -3796,9 +3856,9 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>533949</v>
@@ -3816,49 +3876,49 @@
         <v>23498</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>477075</v>
       </c>
       <c r="C141">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="D141">
         <v>1.700000047683716</v>
       </c>
       <c r="E141">
-        <v>1.399999976158142</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="F141">
         <v>8550</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>461201</v>
       </c>
       <c r="C142">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="D142">
         <v>1.5</v>
       </c>
       <c r="E142">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="F142">
         <v>723</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>455355</v>
@@ -3867,67 +3927,67 @@
         <v>49.5</v>
       </c>
       <c r="D143">
-        <v>60.20000076293945</v>
+        <v>60.200000762939453</v>
       </c>
       <c r="E143">
-        <v>38.79999923706055</v>
+        <v>38.799999237060547</v>
       </c>
       <c r="F143">
         <v>5688</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>452830</v>
       </c>
       <c r="C144">
-        <v>36.29999923706055</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D144">
-        <v>38.79999923706055</v>
+        <v>38.799999237060547</v>
       </c>
       <c r="E144">
-        <v>33.79999923706055</v>
+        <v>33.799999237060547</v>
       </c>
       <c r="F144">
         <v>2161</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>417648</v>
       </c>
       <c r="C145">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="D145">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E145">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="F145">
         <v>5145</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>414300</v>
       </c>
       <c r="C146">
-        <v>37.70000076293945</v>
+        <v>37.700000762939453</v>
       </c>
       <c r="D146">
-        <v>51.70000076293945</v>
+        <v>51.700000762939453</v>
       </c>
       <c r="E146">
         <v>23.70000076293945</v>
@@ -3936,35 +3996,35 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147">
         <v>408535</v>
       </c>
       <c r="C147">
-        <v>6.900000095367432</v>
+        <v>6.9000000953674316</v>
       </c>
       <c r="D147">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="E147">
-        <v>4.800000190734863</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="F147">
         <v>5965</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>407502</v>
       </c>
       <c r="C148">
-        <v>8.300000190734863</v>
+        <v>8.3000001907348633</v>
       </c>
       <c r="D148">
         <v>10.5</v>
@@ -3976,15 +4036,15 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149">
         <v>405053</v>
       </c>
       <c r="C149">
-        <v>1.100000023841858</v>
+        <v>1.1000000238418579</v>
       </c>
       <c r="D149">
         <v>1.700000047683716</v>
@@ -3996,15 +4056,15 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150">
         <v>396230</v>
       </c>
       <c r="C150">
-        <v>33.20000076293945</v>
+        <v>33.200000762939453</v>
       </c>
       <c r="D150">
         <v>38</v>
@@ -4016,9 +4076,9 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>389970</v>
@@ -4036,15 +4096,15 @@
         <v>757</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>389807</v>
       </c>
       <c r="C152">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D152">
         <v>-999</v>
@@ -4056,29 +4116,29 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>356173</v>
       </c>
       <c r="C153">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153">
-        <v>0.05000000074505806</v>
+        <v>5.000000074505806E-2</v>
       </c>
       <c r="F153">
         <v>2077</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>336863</v>
@@ -4096,15 +4156,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>332954</v>
       </c>
       <c r="C155">
-        <v>8.100000381469727</v>
+        <v>8.1000003814697266</v>
       </c>
       <c r="D155">
         <v>12.19999980926514</v>
@@ -4116,18 +4176,18 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>329905</v>
       </c>
       <c r="C156">
-        <v>3.599999904632568</v>
+        <v>3.5999999046325679</v>
       </c>
       <c r="D156">
-        <v>4.699999809265137</v>
+        <v>4.6999998092651367</v>
       </c>
       <c r="E156">
         <v>2.5</v>
@@ -4136,18 +4196,18 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>304218</v>
       </c>
       <c r="C157">
-        <v>37.29999923706055</v>
+        <v>37.299999237060547</v>
       </c>
       <c r="D157">
-        <v>47.59999847412109</v>
+        <v>47.599998474121087</v>
       </c>
       <c r="E157">
         <v>28.20000076293945</v>
@@ -4156,49 +4216,49 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>284246</v>
       </c>
       <c r="C158">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="D158">
-        <v>2.299999952316284</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="E158">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="F158">
         <v>9183</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>254545</v>
       </c>
       <c r="C159">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="D159">
         <v>1.200000047683716</v>
       </c>
       <c r="E159">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="F159">
         <v>8839</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>240002</v>
@@ -4216,29 +4276,29 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>234948</v>
       </c>
       <c r="C161">
-        <v>40.90000152587891</v>
+        <v>40.900001525878913</v>
       </c>
       <c r="D161">
-        <v>46.20000076293945</v>
+        <v>46.200000762939453</v>
       </c>
       <c r="E161">
-        <v>35.59999847412109</v>
+        <v>35.599998474121087</v>
       </c>
       <c r="F161">
         <v>1501</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>232375</v>
@@ -4247,7 +4307,7 @@
         <v>1.5</v>
       </c>
       <c r="D162">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="E162">
         <v>0.5</v>
@@ -4256,9 +4316,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>226269</v>
@@ -4270,44 +4330,44 @@
         <v>1.299999952316284</v>
       </c>
       <c r="E163">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F163">
         <v>1696</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>207195</v>
       </c>
       <c r="C164">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="D164">
-        <v>7.800000190734863</v>
+        <v>7.8000001907348633</v>
       </c>
       <c r="E164">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="F164">
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>191925</v>
       </c>
       <c r="C165">
-        <v>1.100000023841858</v>
+        <v>1.1000000238418579</v>
       </c>
       <c r="D165">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="E165">
         <v>0.5</v>
@@ -4316,9 +4376,9 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>187160</v>
@@ -4330,35 +4390,35 @@
         <v>3</v>
       </c>
       <c r="E166">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F166">
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167">
         <v>186826</v>
       </c>
       <c r="C167">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D167">
         <v>60</v>
       </c>
       <c r="E167">
-        <v>54.70000076293945</v>
+        <v>54.700000762939453</v>
       </c>
       <c r="F167">
         <v>97</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168">
         <v>184461</v>
@@ -4376,38 +4436,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>180320</v>
       </c>
       <c r="C169">
-        <v>4.300000190734863</v>
+        <v>4.3000001907348633</v>
       </c>
       <c r="D169">
-        <v>4.900000095367432</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E169">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="F169">
         <v>916</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>172316</v>
       </c>
       <c r="C170">
-        <v>42.90000152587891</v>
+        <v>42.900001525878913</v>
       </c>
       <c r="D170">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="E170">
         <v>28.70000076293945</v>
@@ -4416,29 +4476,29 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171">
         <v>155908</v>
       </c>
       <c r="C171">
-        <v>69.59999847412109</v>
+        <v>69.599998474121094</v>
       </c>
       <c r="D171">
         <v>72.5</v>
       </c>
       <c r="E171">
-        <v>66.69999694824219</v>
+        <v>66.699996948242188</v>
       </c>
       <c r="F171">
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>151059</v>
@@ -4456,169 +4516,169 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>148402</v>
       </c>
       <c r="C173">
-        <v>77.30000305175781</v>
+        <v>77.300003051757813</v>
       </c>
       <c r="D173">
         <v>80.5</v>
       </c>
       <c r="E173">
-        <v>74.09999847412109</v>
+        <v>74.099998474121094</v>
       </c>
       <c r="F173">
         <v>154</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174">
         <v>142548</v>
       </c>
       <c r="C174">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D174">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E174">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F174">
         <v>2785</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175">
         <v>134945</v>
       </c>
       <c r="C175">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="D175">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="E175">
-        <v>0.05000000074505806</v>
+        <v>5.000000074505806E-2</v>
       </c>
       <c r="F175">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>129319</v>
       </c>
       <c r="C176">
-        <v>76.09999847412109</v>
+        <v>76.099998474121094</v>
       </c>
       <c r="D176">
         <v>77</v>
       </c>
       <c r="E176">
-        <v>75.09999847412109</v>
+        <v>75.099998474121094</v>
       </c>
       <c r="F176">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>110096</v>
       </c>
       <c r="C177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="D177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="E177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="F177">
         <v>675</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>106074</v>
       </c>
       <c r="C178">
-        <v>8.300000190734863</v>
+        <v>8.3000001907348633</v>
       </c>
       <c r="D178">
         <v>12.80000019073486</v>
       </c>
       <c r="E178">
-        <v>3.599999904632568</v>
+        <v>3.5999999046325679</v>
       </c>
       <c r="F178">
         <v>641</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>103751</v>
       </c>
       <c r="C179">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D179">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E179">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F179">
         <v>889</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>102357</v>
       </c>
       <c r="C180">
-        <v>89.80000305175781</v>
+        <v>89.800003051757813</v>
       </c>
       <c r="D180">
         <v>124.5</v>
       </c>
       <c r="E180">
-        <v>64.80000305175781</v>
+        <v>64.800003051757813</v>
       </c>
       <c r="F180">
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181">
         <v>101986</v>
@@ -4636,49 +4696,49 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>95918</v>
       </c>
       <c r="C182">
-        <v>62.29999923706055</v>
+        <v>62.299999237060547</v>
       </c>
       <c r="D182">
-        <v>68.69999694824219</v>
+        <v>68.699996948242188</v>
       </c>
       <c r="E182">
-        <v>55.90000152587891</v>
+        <v>55.900001525878913</v>
       </c>
       <c r="F182">
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>94715</v>
       </c>
       <c r="C183">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D183">
-        <v>4.900000095367432</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E183">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="F183">
         <v>3807</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184">
         <v>89252</v>
@@ -4687,27 +4747,27 @@
         <v>46</v>
       </c>
       <c r="D184">
-        <v>50.09999847412109</v>
+        <v>50.099998474121087</v>
       </c>
       <c r="E184">
-        <v>41.90000152587891</v>
+        <v>41.900001525878913</v>
       </c>
       <c r="F184">
         <v>1325</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>86676</v>
       </c>
       <c r="C185">
-        <v>68.80000305175781</v>
+        <v>68.800003051757813</v>
       </c>
       <c r="D185">
-        <v>69.59999847412109</v>
+        <v>69.599998474121094</v>
       </c>
       <c r="E185">
         <v>68</v>
@@ -4716,9 +4776,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>82679</v>
@@ -4736,9 +4796,9 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>79527</v>
@@ -4750,15 +4810,15 @@
         <v>117.5</v>
       </c>
       <c r="E187">
-        <v>116.4000015258789</v>
+        <v>116.40000152587891</v>
       </c>
       <c r="F187">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>76224</v>
@@ -4776,15 +4836,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>74503</v>
       </c>
       <c r="C189">
-        <v>37.29999923706055</v>
+        <v>37.299999237060547</v>
       </c>
       <c r="D189">
         <v>47</v>
@@ -4796,38 +4856,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>74291</v>
       </c>
       <c r="C190">
-        <v>75.80000305175781</v>
+        <v>75.800003051757813</v>
       </c>
       <c r="D190">
-        <v>77.80000305175781</v>
+        <v>77.800003051757813</v>
       </c>
       <c r="E190">
-        <v>73.80000305175781</v>
+        <v>73.800003051757813</v>
       </c>
       <c r="F190">
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>72311</v>
       </c>
       <c r="C191">
-        <v>34.79999923706055</v>
+        <v>34.799999237060547</v>
       </c>
       <c r="D191">
-        <v>42.59999847412109</v>
+        <v>42.599998474121087</v>
       </c>
       <c r="E191">
         <v>-999</v>
@@ -4836,49 +4896,49 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192">
         <v>67229</v>
       </c>
       <c r="C192">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="D192">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="E192">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="F192">
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193">
         <v>64799</v>
       </c>
       <c r="C193">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D193">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="E193">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F193">
         <v>739</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>55663</v>
@@ -4896,109 +4956,109 @@
         <v>579</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>52374</v>
       </c>
       <c r="C195">
-        <v>68.90000152587891</v>
+        <v>68.900001525878906</v>
       </c>
       <c r="D195">
-        <v>72.19999694824219</v>
+        <v>72.199996948242188</v>
       </c>
       <c r="E195">
-        <v>65.59999847412109</v>
+        <v>65.599998474121094</v>
       </c>
       <c r="F195">
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196">
         <v>49980</v>
       </c>
       <c r="C196">
-        <v>64.09999847412109</v>
+        <v>64.099998474121094</v>
       </c>
       <c r="D196">
-        <v>68.40000152587891</v>
+        <v>68.400001525878906</v>
       </c>
       <c r="E196">
-        <v>59.79999923706055</v>
+        <v>59.799999237060547</v>
       </c>
       <c r="F196">
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>49310</v>
       </c>
       <c r="C197">
-        <v>58.70000076293945</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="D197">
-        <v>61.20000076293945</v>
+        <v>61.200000762939453</v>
       </c>
       <c r="E197">
-        <v>56.20000076293945</v>
+        <v>56.200000762939453</v>
       </c>
       <c r="F197">
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>47415</v>
       </c>
       <c r="C198">
-        <v>41.59999847412109</v>
+        <v>41.599998474121087</v>
       </c>
       <c r="D198">
-        <v>44.59999847412109</v>
+        <v>44.599998474121087</v>
       </c>
       <c r="E198">
-        <v>38.59999847412109</v>
+        <v>38.599998474121087</v>
       </c>
       <c r="F198">
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>47100</v>
       </c>
       <c r="C199">
-        <v>69.30000305175781</v>
+        <v>69.300003051757813</v>
       </c>
       <c r="D199">
-        <v>71.90000152587891</v>
+        <v>71.900001525878906</v>
       </c>
       <c r="E199">
-        <v>71.90000152587891</v>
+        <v>71.900001525878906</v>
       </c>
       <c r="F199">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>44624</v>
@@ -5007,7 +5067,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="D200">
-        <v>33.29999923706055</v>
+        <v>33.299999237060547</v>
       </c>
       <c r="E200">
         <v>29.60000038146973</v>
@@ -5016,29 +5076,29 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>41993</v>
       </c>
       <c r="C201">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D201">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E201">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F201">
         <v>-999</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>33825</v>
@@ -5056,69 +5116,69 @@
         <v>139</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>18584</v>
       </c>
       <c r="C203">
-        <v>61.90000152587891</v>
+        <v>61.900001525878913</v>
       </c>
       <c r="D203">
-        <v>63.29999923706055</v>
+        <v>63.299999237060547</v>
       </c>
       <c r="E203">
-        <v>60.59999847412109</v>
+        <v>60.599998474121087</v>
       </c>
       <c r="F203">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204">
         <v>14863</v>
       </c>
       <c r="C204">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="D204">
-        <v>58.59999847412109</v>
+        <v>58.599998474121087</v>
       </c>
       <c r="E204">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="F204">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205">
         <v>7892</v>
       </c>
       <c r="C205">
-        <v>65.80000305175781</v>
+        <v>65.800003051757813</v>
       </c>
       <c r="D205">
-        <v>72.69999694824219</v>
+        <v>72.699996948242188</v>
       </c>
       <c r="E205">
-        <v>58.90000152587891</v>
+        <v>58.900001525878913</v>
       </c>
       <c r="F205">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B206">
         <v>4407</v>
@@ -5127,18 +5187,18 @@
         <v>73.5</v>
       </c>
       <c r="D206">
-        <v>87.69999694824219</v>
+        <v>87.699996948242188</v>
       </c>
       <c r="E206">
-        <v>59.20000076293945</v>
+        <v>59.200000762939453</v>
       </c>
       <c r="F206">
         <v>202</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B207">
         <v>2871</v>
@@ -5156,9 +5216,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B208">
         <v>-999</v>
@@ -5177,6 +5237,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0929_covid_df_merge/data/2021-09-30_vaccinated.xlsx
+++ b/0929_covid_df_merge/data/2021-09-30_vaccinated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\210929_covid_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749DB60F-4C53-460A-9375-4AA0CB16AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF5DFE-01AE-4509-9C8B-ECD119F34B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="660" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="0" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>국가</t>
   </si>
   <si>
-    <t>Enough_percent_people:</t>
-  </si>
-  <si>
     <t>1차접종</t>
   </si>
   <si>
@@ -659,6 +656,10 @@
   </si>
   <si>
     <t>백신보유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구당_백신보유율</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1072,7 @@
   <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1081,24 +1082,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>6251982336</v>
@@ -1118,7 +1119,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2206053888</v>
@@ -1138,7 +1139,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>883358400</v>
@@ -1158,7 +1159,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>564975616</v>
@@ -1178,7 +1179,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>391992672</v>
@@ -1198,7 +1199,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>234674912</v>
@@ -1218,7 +1219,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>162577376</v>
@@ -1238,7 +1239,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>141049216</v>
@@ -1258,7 +1259,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>109164376</v>
@@ -1278,7 +1279,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>107422984</v>
@@ -1298,7 +1299,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>99868672</v>
@@ -1318,7 +1319,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>94409616</v>
@@ -1338,7 +1339,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>93630856</v>
@@ -1358,7 +1359,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>90127904</v>
@@ -1378,7 +1379,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>84548512</v>
@@ -1398,7 +1399,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>80508568</v>
@@ -1418,7 +1419,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>70022096</v>
@@ -1438,7 +1439,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>63412392</v>
@@ -1458,7 +1459,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>56108840</v>
@@ -1478,7 +1479,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>51950784</v>
@@ -1498,7 +1499,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>51516132</v>
@@ -1518,7 +1519,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>49681432</v>
@@ -1538,7 +1539,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>48225448</v>
@@ -1558,7 +1559,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>44741740</v>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>43367580</v>
@@ -1598,7 +1599,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>41987172</v>
@@ -1618,7 +1619,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>41099860</v>
@@ -1638,7 +1639,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>39913296</v>
@@ -1658,7 +1659,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>39232772</v>
@@ -1678,7 +1679,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>37186152</v>
@@ -1698,7 +1699,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>31664524</v>
@@ -1718,7 +1719,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>27441696</v>
@@ -1738,7 +1739,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>26171816</v>
@@ -1758,7 +1759,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>26058662</v>
@@ -1778,7 +1779,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>24072204</v>
@@ -1798,7 +1799,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>23540560</v>
@@ -1818,7 +1819,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>20666054</v>
@@ -1838,7 +1839,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>20535956</v>
@@ -1858,7 +1859,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>20018034</v>
@@ -1878,7 +1879,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>19969344</v>
@@ -1898,7 +1899,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>18057256</v>
@@ -1918,7 +1919,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>17176604</v>
@@ -1938,7 +1939,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>16672036</v>
@@ -1958,7 +1959,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>16223309</v>
@@ -1978,7 +1979,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>15950862</v>
@@ -1998,7 +1999,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>15714857</v>
@@ -2018,7 +2019,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>15091281</v>
@@ -2038,7 +2039,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>15030613</v>
@@ -2058,7 +2059,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>14095115</v>
@@ -2078,7 +2079,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>14082920</v>
@@ -2098,7 +2099,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>13730445</v>
@@ -2118,7 +2119,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>13452743</v>
@@ -2138,7 +2139,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>12112128</v>
@@ -2158,7 +2159,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>11859802</v>
@@ -2178,7 +2179,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>11790273</v>
@@ -2198,7 +2199,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>11167215</v>
@@ -2218,7 +2219,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>10935671</v>
@@ -2238,7 +2239,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>10817179</v>
@@ -2258,7 +2259,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>10383501</v>
@@ -2278,7 +2279,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>10175695</v>
@@ -2298,7 +2299,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>9306870</v>
@@ -2318,7 +2319,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>8819556</v>
@@ -2338,7 +2339,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>8646366</v>
@@ -2358,7 +2359,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>8350575</v>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>7975573</v>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>7769255</v>
@@ -2418,7 +2419,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>7608508</v>
@@ -2438,7 +2439,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>7556125</v>
@@ -2458,7 +2459,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>7396969</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>7207797</v>
@@ -2498,7 +2499,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>6976290</v>
@@ -2518,7 +2519,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>6757605</v>
@@ -2538,7 +2539,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>6729706</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>6552979</v>
@@ -2578,7 +2579,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>6456710</v>
@@ -2598,7 +2599,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>6374064</v>
@@ -2618,7 +2619,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>6234761</v>
@@ -2638,7 +2639,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>5367816</v>
@@ -2658,7 +2659,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>5290317</v>
@@ -2678,7 +2679,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>5278479</v>
@@ -2698,7 +2699,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>5196072</v>
@@ -2718,7 +2719,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>5132627</v>
@@ -2738,7 +2739,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>4767787</v>
@@ -2758,7 +2759,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>4708867</v>
@@ -2778,7 +2779,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>4662652</v>
@@ -2798,7 +2799,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87">
         <v>4488153</v>
@@ -2818,7 +2819,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>4402770</v>
@@ -2838,7 +2839,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>3872421</v>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90">
         <v>3760170</v>
@@ -2878,7 +2879,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>3712030</v>
@@ -2898,7 +2899,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92">
         <v>3644423</v>
@@ -2918,7 +2919,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>3559648</v>
@@ -2938,7 +2939,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94">
         <v>3419381</v>
@@ -2958,7 +2959,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>3389520</v>
@@ -2978,7 +2979,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>3207088</v>
@@ -2998,7 +2999,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>3134137</v>
@@ -3018,7 +3019,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>3133227</v>
@@ -3038,7 +3039,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>3038896</v>
@@ -3058,7 +3059,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>2574524</v>
@@ -3078,7 +3079,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>2530744</v>
@@ -3098,7 +3099,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>2380000</v>
@@ -3118,7 +3119,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>2119238</v>
@@ -3138,7 +3139,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104">
         <v>2058553</v>
@@ -3158,7 +3159,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105">
         <v>1982168</v>
@@ -3178,7 +3179,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>1784832</v>
@@ -3198,7 +3199,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>1774769</v>
@@ -3218,7 +3219,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108">
         <v>1732598</v>
@@ -3238,7 +3239,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>1723996</v>
@@ -3258,7 +3259,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110">
         <v>1704840</v>
@@ -3278,7 +3279,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>1653422</v>
@@ -3298,7 +3299,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112">
         <v>1633952</v>
@@ -3318,7 +3319,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113">
         <v>1626651</v>
@@ -3338,7 +3339,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114">
         <v>1586055</v>
@@ -3358,7 +3359,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>1505469</v>
@@ -3378,7 +3379,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>1436823</v>
@@ -3398,7 +3399,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>1392707</v>
@@ -3418,7 +3419,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>1364994</v>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>1299482</v>
@@ -3458,7 +3459,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>1155490</v>
@@ -3478,7 +3479,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>1118158</v>
@@ -3498,7 +3499,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>1087426</v>
@@ -3518,7 +3519,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>1081086</v>
@@ -3538,7 +3539,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>1060145</v>
@@ -3558,7 +3559,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>1057104</v>
@@ -3578,7 +3579,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>1033997</v>
@@ -3598,7 +3599,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>997632</v>
@@ -3618,7 +3619,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>820435</v>
@@ -3638,7 +3639,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>788502</v>
@@ -3658,7 +3659,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>785299</v>
@@ -3678,7 +3679,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>755782</v>
@@ -3698,7 +3699,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>729253</v>
@@ -3718,7 +3719,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>720260</v>
@@ -3738,7 +3739,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134">
         <v>711879</v>
@@ -3758,7 +3759,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>649564</v>
@@ -3778,7 +3779,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>621853</v>
@@ -3798,7 +3799,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>606699</v>
@@ -3818,7 +3819,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>551110</v>
@@ -3838,7 +3839,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139">
         <v>538748</v>
@@ -3858,7 +3859,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140">
         <v>533949</v>
@@ -3878,7 +3879,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141">
         <v>477075</v>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142">
         <v>461201</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143">
         <v>455355</v>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144">
         <v>452830</v>
@@ -3958,7 +3959,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145">
         <v>417648</v>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146">
         <v>414300</v>
@@ -3998,7 +3999,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147">
         <v>408535</v>
@@ -4018,7 +4019,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148">
         <v>407502</v>
@@ -4038,7 +4039,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B149">
         <v>405053</v>
@@ -4058,7 +4059,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B150">
         <v>396230</v>
@@ -4078,7 +4079,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B151">
         <v>389970</v>
@@ -4098,7 +4099,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B152">
         <v>389807</v>
@@ -4118,7 +4119,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153">
         <v>356173</v>
@@ -4138,7 +4139,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154">
         <v>336863</v>
@@ -4158,7 +4159,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155">
         <v>332954</v>
@@ -4178,7 +4179,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156">
         <v>329905</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157">
         <v>304218</v>
@@ -4218,7 +4219,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158">
         <v>284246</v>
@@ -4238,7 +4239,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159">
         <v>254545</v>
@@ -4258,7 +4259,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160">
         <v>240002</v>
@@ -4278,7 +4279,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161">
         <v>234948</v>
@@ -4298,7 +4299,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162">
         <v>232375</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163">
         <v>226269</v>
@@ -4338,7 +4339,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164">
         <v>207195</v>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>191925</v>
@@ -4378,7 +4379,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166">
         <v>187160</v>
@@ -4398,7 +4399,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167">
         <v>186826</v>
@@ -4418,7 +4419,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168">
         <v>184461</v>
@@ -4438,7 +4439,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169">
         <v>180320</v>
@@ -4458,7 +4459,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170">
         <v>172316</v>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171">
         <v>155908</v>
@@ -4498,7 +4499,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172">
         <v>151059</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173">
         <v>148402</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174">
         <v>142548</v>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175">
         <v>134945</v>
@@ -4578,7 +4579,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176">
         <v>129319</v>
@@ -4598,7 +4599,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>110096</v>
@@ -4618,7 +4619,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178">
         <v>106074</v>
@@ -4638,7 +4639,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179">
         <v>103751</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180">
         <v>102357</v>
@@ -4678,7 +4679,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181">
         <v>101986</v>
@@ -4698,7 +4699,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182">
         <v>95918</v>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183">
         <v>94715</v>
@@ -4738,7 +4739,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184">
         <v>89252</v>
@@ -4758,7 +4759,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185">
         <v>86676</v>
@@ -4778,7 +4779,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186">
         <v>82679</v>
@@ -4798,7 +4799,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187">
         <v>79527</v>
@@ -4818,7 +4819,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188">
         <v>76224</v>
@@ -4838,7 +4839,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189">
         <v>74503</v>
@@ -4858,7 +4859,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190">
         <v>74291</v>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191">
         <v>72311</v>
@@ -4898,7 +4899,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192">
         <v>67229</v>
@@ -4918,7 +4919,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193">
         <v>64799</v>
@@ -4938,7 +4939,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194">
         <v>55663</v>
@@ -4958,7 +4959,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B195">
         <v>52374</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196">
         <v>49980</v>
@@ -4998,7 +4999,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197">
         <v>49310</v>
@@ -5018,7 +5019,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>47415</v>
@@ -5038,7 +5039,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199">
         <v>47100</v>
@@ -5058,7 +5059,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200">
         <v>44624</v>
@@ -5078,7 +5079,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201">
         <v>41993</v>
@@ -5098,7 +5099,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>33825</v>
@@ -5118,7 +5119,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203">
         <v>18584</v>
@@ -5138,7 +5139,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204">
         <v>14863</v>
@@ -5158,7 +5159,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205">
         <v>7892</v>
@@ -5178,7 +5179,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206">
         <v>4407</v>
@@ -5198,7 +5199,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207">
         <v>2871</v>
@@ -5218,7 +5219,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208">
         <v>-999</v>
@@ -5239,5 +5240,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>